--- a/data/trans_bre/P19C06-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C06-Provincia-trans_bre.xlsx
@@ -660,24 +660,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.054284561565694</v>
+        <v>-2.132330677370355</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.6335681222668685</v>
+        <v>-0.6443083454274264</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.826393862092365</v>
+        <v>-4.611291836321162</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.352811093898639</v>
+        <v>-4.875322774413799</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
-        <v>-0.4570895315298694</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.4158541278735404</v>
+      </c>
+      <c r="I5" s="6" t="inlineStr"/>
       <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
@@ -688,24 +686,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.115858312826634</v>
+        <v>1.090911660040899</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.547474939732637</v>
+        <v>5.140007271582441</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6493773914040523</v>
+        <v>0.906876675275859</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2701010468153703</v>
+        <v>0.3161471654162693</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>6.604073947703743</v>
-      </c>
-      <c r="I6" s="6" t="n">
-        <v>0.951483399281062</v>
-      </c>
+        <v>6.885580851064698</v>
+      </c>
+      <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -729,7 +725,7 @@
         <v>0.250362018653193</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3309161082490559</v>
+        <v>0.3309161082490555</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.1042156570320849</v>
@@ -743,7 +739,7 @@
         </is>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.7273427444577181</v>
+        <v>0.727342744457717</v>
       </c>
     </row>
     <row r="8">
@@ -754,24 +750,24 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.859512334229444</v>
+        <v>-1.825704717271913</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.425983243857884</v>
+        <v>-1.520471637788515</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.5141729792110055</v>
+        <v>-0.5583597016092893</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7840010686665605</v>
+        <v>-0.7834850486569201</v>
       </c>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="n">
-        <v>-0.8174649598221121</v>
+        <v>-0.9178960914022201</v>
       </c>
     </row>
     <row r="9">
@@ -782,19 +778,19 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.493841359491906</v>
+        <v>1.336411792433488</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8969091578778671</v>
+        <v>0.8995970307934203</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.171437893284466</v>
+        <v>1.332854890124518</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.221664324706579</v>
+        <v>1.194132453937549</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.600278836808219</v>
+        <v>2.083920195719489</v>
       </c>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="inlineStr"/>
@@ -844,24 +840,24 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.752868861198214</v>
+        <v>-1.695282794788197</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.6141903901220092</v>
+        <v>-0.5266801973183636</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.621810103292703</v>
+        <v>-0.62210745652724</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.534885784099081</v>
+        <v>-1.554483537845887</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>-0.5455080328337814</v>
+        <v>-0.4396536020511727</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>-0.7314109712664778</v>
+        <v>-0.7474863486053541</v>
       </c>
     </row>
     <row r="12">
@@ -872,24 +868,24 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9848910239099524</v>
+        <v>1.221885506883483</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.277600649990008</v>
+        <v>4.312235085744449</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.065676402707777</v>
+        <v>1.062835751089384</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.659285997567821</v>
+        <v>1.560346775794991</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>8.119714482306643</v>
+        <v>9.900455100624251</v>
       </c>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>5.929666425354102</v>
+        <v>4.064039106074778</v>
       </c>
     </row>
     <row r="13">
@@ -913,7 +909,7 @@
         <v>1.537384936240918</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2746860850256718</v>
+        <v>0.2746860850256714</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2612545950066122</v>
@@ -927,7 +923,7 @@
         </is>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.3439750205518405</v>
+        <v>0.3439750205518401</v>
       </c>
     </row>
     <row r="14">
@@ -938,24 +934,24 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.954840759615285</v>
+        <v>-1.714629604094179</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.863251366995167</v>
+        <v>-3.328995010013533</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5569611285282754</v>
+        <v>0.5823871764720523</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.074606908350406</v>
+        <v>-1.123411597435928</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7706345380474928</v>
+        <v>-0.7923046053979451</v>
       </c>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>-0.8889149780646965</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15">
@@ -966,23 +962,25 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.548592520397911</v>
+        <v>2.543142589735186</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.056760209580815</v>
+        <v>0.8952569919153098</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.436208870964408</v>
+        <v>3.433477914268245</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.664898888591125</v>
+        <v>1.819235634634973</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4.161067559420011</v>
+        <v>4.94559696869386</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="inlineStr"/>
-      <c r="J15" s="6" t="inlineStr"/>
+      <c r="J15" s="6" t="n">
+        <v>10.05665311405627</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1037,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.775827013100883</v>
+        <v>-3.827130276437169</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5702940214175002</v>
+        <v>0.5773056179511163</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0</v>
@@ -1058,16 +1056,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.970317801200231</v>
+        <v>2.960636668426794</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.265852704615209</v>
+        <v>1.222550926711705</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.182532469030217</v>
+        <v>5.185001748524606</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9955970856722596</v>
+        <v>0.9979975379794732</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="inlineStr"/>
@@ -1095,7 +1093,7 @@
         <v>-1.551512212036311</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-0.5044462770874127</v>
+        <v>-0.504446277087413</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0474650985272714</v>
@@ -1118,22 +1116,24 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.9758185092100475</v>
+        <v>-0.9809393231052479</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-1.43533937233093</v>
+        <v>-1.599803668611189</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-4.1945001975881</v>
+        <v>-4.251907104945977</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-2.610399317682381</v>
+        <v>-2.513865545415579</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
-      <c r="H20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="n">
-        <v>-0.8800651668133332</v>
+        <v>-0.8790596150892835</v>
       </c>
     </row>
     <row r="21">
@@ -1144,22 +1144,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.529561804838786</v>
+        <v>1.521808952389227</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2.265446188746364</v>
+        <v>2.582174616870719</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.185790831289277</v>
+        <v>0.01857847206758437</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9436104002730045</v>
+        <v>1.057939643760277</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>1.913615368756717</v>
+        <v>1.913759088631033</v>
       </c>
     </row>
     <row r="22">
@@ -1206,28 +1206,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.5027490425936044</v>
+        <v>-0.4575808222174405</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07807603678942365</v>
+        <v>0.1854038529426345</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.056651796923729</v>
+        <v>-0.9053388518785631</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5063338848783935</v>
+        <v>0.4846998168121215</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.5385858337280599</v>
+        <v>-0.5020190935802901</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.3491145531144751</v>
+        <v>-0.1733508255232051</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.6718332435044551</v>
+        <v>-0.5759592489234344</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.1783286591215456</v>
+        <v>0.1959667608329457</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1238,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.498430776280052</v>
+        <v>2.606954033108339</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.428591549564973</v>
+        <v>2.529719563819322</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.280451498207702</v>
+        <v>2.290744913619796</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.794341483378556</v>
+        <v>2.874777976023461</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>8.555757619058079</v>
+        <v>9.189355727596389</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>12.88149536881836</v>
+        <v>15.03188900545279</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>4.790507191286445</v>
+        <v>5.647581185722909</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>8.515319163566026</v>
+        <v>8.734838443960658</v>
       </c>
     </row>
     <row r="25">
@@ -1283,7 +1283,7 @@
         <v>-0.0317507797318449</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-0.01232755901237085</v>
+        <v>-0.01232755901237094</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.5364713086050601</v>
@@ -1295,7 +1295,7 @@
         <v>-0.01437476512851983</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.02785763734703491</v>
+        <v>-0.0278576373470351</v>
       </c>
     </row>
     <row r="26">
@@ -1306,29 +1306,27 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-2.093143424195241</v>
+        <v>-2.064787613033513</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-1.085374448698707</v>
+        <v>-1.105685871084126</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-1.754115172175829</v>
+        <v>-1.660692954920672</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-0.762458516877579</v>
+        <v>-0.6658038807017207</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.9034556609640187</v>
+        <v>-0.9145795903164492</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.8788228763478692</v>
+        <v>-1</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.5734632717266381</v>
-      </c>
-      <c r="J26" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.5531848826551807</v>
+      </c>
+      <c r="J26" s="6" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
@@ -1338,25 +1336,25 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2843309724267147</v>
+        <v>0.3111298401471799</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9001770088218958</v>
+        <v>0.7542424277299847</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.518581507885633</v>
+        <v>1.546238304919598</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.5581517106204245</v>
+        <v>0.6354684886387519</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7973517819277082</v>
+        <v>0.596904230009127</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>4.354323403918174</v>
+        <v>3.168463944663678</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.10661074076825</v>
+        <v>1.224329111132098</v>
       </c>
       <c r="J27" s="6" t="inlineStr"/>
     </row>
@@ -1381,7 +1379,7 @@
         <v>0.1488719082256411</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.3269573330675047</v>
+        <v>0.3269573330675045</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03022429080149189</v>
@@ -1393,7 +1391,7 @@
         <v>0.1255090793798994</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.4255271800235892</v>
+        <v>0.4255271800235887</v>
       </c>
     </row>
     <row r="29">
@@ -1404,28 +1402,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.4706827163968827</v>
+        <v>-0.5134694869571934</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.2039080958841344</v>
+        <v>-0.155789285464881</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.4705819248817095</v>
+        <v>-0.5228567643781511</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.09631078962392019</v>
+        <v>-0.08507951021242785</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.3490944689780424</v>
+        <v>-0.36908475805797</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.1578645169328441</v>
+        <v>-0.1416218847279958</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.3284540956984169</v>
+        <v>-0.3371076834150449</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.1272319180065038</v>
+        <v>-0.08925037572473347</v>
       </c>
     </row>
     <row r="30">
@@ -1436,28 +1434,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.6902727331147817</v>
+        <v>0.6111253853238487</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.9844204861408061</v>
+        <v>1.021836300704154</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.721664634573663</v>
+        <v>0.7516725601918328</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.7844702622351629</v>
+        <v>0.7202183748818868</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.9274065858514481</v>
+        <v>0.7883410630180512</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1.340132238726879</v>
+        <v>1.343920548015306</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8203258481407122</v>
+        <v>0.8750652494812505</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1.463886867297474</v>
+        <v>1.433402904635598</v>
       </c>
     </row>
     <row r="31">
